--- a/Examples/SuperDecisions/Dam_filledIn.xlsx
+++ b/Examples/SuperDecisions/Dam_filledIn.xlsx
@@ -609,13 +609,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="n">
-        <v>0.375</v>
+        <v>1.6</v>
       </c>
       <c r="D4" s="7" t="n">
-        <v>0.6</v>
+        <v>2.667</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="F4" s="8" t="n"/>
       <c r="G4" s="5" t="n"/>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="B5" s="9" t="n">
-        <v>2.667</v>
+        <v>0.625</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>1.6</v>
+        <v>1.667</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="F5" s="8" t="n"/>
       <c r="G5" s="5" t="n"/>
@@ -650,16 +650,16 @@
         </is>
       </c>
       <c r="B6" s="9" t="n">
-        <v>1.667</v>
+        <v>0.375</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="7" t="n">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="F6" s="8" t="n"/>
       <c r="G6" s="5" t="n"/>
@@ -672,13 +672,13 @@
         </is>
       </c>
       <c r="B7" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="9" t="n">
         <v>1.333</v>
-      </c>
-      <c r="C7" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="9" t="n">
-        <v>0.8</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>1</v>
@@ -753,10 +753,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D13" s="7" t="n">
         <v>6</v>
-      </c>
-      <c r="D13" s="7" t="n">
-        <v>1.2</v>
       </c>
       <c r="E13" s="7" t="n">
         <v>1.5</v>
@@ -774,19 +774,19 @@
         </is>
       </c>
       <c r="B14" s="9" t="n">
-        <v>0.167</v>
+        <v>0.833</v>
       </c>
       <c r="C14" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="7" t="n">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="G14" s="8" t="n"/>
       <c r="H14" s="5" t="n"/>
@@ -798,19 +798,19 @@
         </is>
       </c>
       <c r="B15" s="9" t="n">
-        <v>0.833</v>
+        <v>0.167</v>
       </c>
       <c r="C15" s="9" t="n">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="D15" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="G15" s="8" t="n"/>
       <c r="H15" s="5" t="n"/>
@@ -825,10 +825,10 @@
         <v>0.667</v>
       </c>
       <c r="C16" s="9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D16" s="9" t="n">
         <v>4</v>
-      </c>
-      <c r="D16" s="9" t="n">
-        <v>0.8</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>1</v>
@@ -849,10 +849,10 @@
         <v>0.667</v>
       </c>
       <c r="C17" s="9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D17" s="9" t="n">
         <v>4</v>
-      </c>
-      <c r="D17" s="9" t="n">
-        <v>0.8</v>
       </c>
       <c r="E17" s="9" t="n">
         <v>1</v>
@@ -927,16 +927,16 @@
         <v>1</v>
       </c>
       <c r="C23" s="7" t="n">
+        <v>2.333</v>
+      </c>
+      <c r="D23" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="D23" s="7" t="n">
+      <c r="E23" s="7" t="n">
         <v>2.333</v>
       </c>
-      <c r="E23" s="7" t="n">
+      <c r="F23" s="7" t="n">
         <v>1.167</v>
-      </c>
-      <c r="F23" s="7" t="n">
-        <v>2.333</v>
       </c>
       <c r="G23" s="8" t="n"/>
       <c r="H23" s="5" t="n"/>
@@ -948,19 +948,19 @@
         </is>
       </c>
       <c r="B24" s="9" t="n">
-        <v>0.143</v>
+        <v>0.429</v>
       </c>
       <c r="C24" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="7" t="n">
-        <v>0.333</v>
+        <v>3</v>
       </c>
       <c r="E24" s="7" t="n">
-        <v>0.167</v>
+        <v>1</v>
       </c>
       <c r="F24" s="7" t="n">
-        <v>0.333</v>
+        <v>0.5</v>
       </c>
       <c r="G24" s="8" t="n"/>
       <c r="H24" s="5" t="n"/>
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B25" s="9" t="n">
-        <v>0.429</v>
+        <v>0.143</v>
       </c>
       <c r="C25" s="9" t="n">
-        <v>3</v>
+        <v>0.333</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E25" s="7" t="n">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="F25" s="7" t="n">
-        <v>1</v>
+        <v>0.167</v>
       </c>
       <c r="G25" s="8" t="n"/>
       <c r="H25" s="5" t="n"/>
@@ -996,19 +996,19 @@
         </is>
       </c>
       <c r="B26" s="9" t="n">
-        <v>0.857</v>
+        <v>0.429</v>
       </c>
       <c r="C26" s="9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D26" s="9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F26" s="7" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G26" s="8" t="n"/>
       <c r="H26" s="5" t="n"/>
@@ -1020,16 +1020,16 @@
         </is>
       </c>
       <c r="B27" s="9" t="n">
-        <v>0.429</v>
+        <v>0.857</v>
       </c>
       <c r="C27" s="9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" s="9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E27" s="9" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F27" s="6" t="n">
         <v>1</v>
@@ -1101,10 +1101,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D33" s="7" t="n">
         <v>0.5</v>
-      </c>
-      <c r="D33" s="7" t="n">
-        <v>0.2</v>
       </c>
       <c r="E33" s="7" t="n">
         <v>1</v>
@@ -1122,19 +1122,19 @@
         </is>
       </c>
       <c r="B34" s="9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C34" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D34" s="7" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="E34" s="7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F34" s="7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G34" s="8" t="n"/>
       <c r="H34" s="5" t="n"/>
@@ -1146,19 +1146,19 @@
         </is>
       </c>
       <c r="B35" s="9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C35" s="9" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="D35" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E35" s="7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F35" s="7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G35" s="8" t="n"/>
       <c r="H35" s="5" t="n"/>
@@ -1173,10 +1173,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D36" s="9" t="n">
         <v>0.5</v>
-      </c>
-      <c r="D36" s="9" t="n">
-        <v>0.2</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>1</v>
@@ -1197,10 +1197,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D37" s="9" t="n">
         <v>0.5</v>
-      </c>
-      <c r="D37" s="9" t="n">
-        <v>0.2</v>
       </c>
       <c r="E37" s="9" t="n">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1</v>
       </c>
       <c r="C43" s="7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="7" t="n">
         <v>0.25</v>
       </c>
-      <c r="D43" s="7" t="n">
+      <c r="E43" s="7" t="n">
         <v>0.5</v>
       </c>
-      <c r="E43" s="7" t="n">
-        <v>1</v>
-      </c>
       <c r="F43" s="7" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G43" s="8" t="n"/>
       <c r="H43" s="5" t="n"/>
@@ -1296,16 +1296,16 @@
         </is>
       </c>
       <c r="B44" s="9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C44" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D44" s="7" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E44" s="7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F44" s="7" t="n">
         <v>2</v>
@@ -1320,10 +1320,10 @@
         </is>
       </c>
       <c r="B45" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" s="9" t="n">
         <v>2</v>
-      </c>
-      <c r="C45" s="9" t="n">
-        <v>0.5</v>
       </c>
       <c r="D45" s="6" t="n">
         <v>1</v>
@@ -1332,7 +1332,7 @@
         <v>2</v>
       </c>
       <c r="F45" s="7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G45" s="8" t="n"/>
       <c r="H45" s="5" t="n"/>
@@ -1344,10 +1344,10 @@
         </is>
       </c>
       <c r="B46" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="9" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D46" s="9" t="n">
         <v>0.5</v>
@@ -1356,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="7" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G46" s="8" t="n"/>
       <c r="H46" s="5" t="n"/>
@@ -1368,16 +1368,16 @@
         </is>
       </c>
       <c r="B47" s="9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="D47" s="9" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E47" s="9" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F47" s="6" t="n">
         <v>1</v>
@@ -1453,19 +1453,19 @@
         <v>1</v>
       </c>
       <c r="C53" s="7" t="n">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="D53" s="7" t="n">
-        <v>0.143</v>
+        <v>4</v>
       </c>
       <c r="E53" s="7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F53" s="7" t="n">
-        <v>0.5</v>
+        <v>0.571</v>
       </c>
       <c r="G53" s="7" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H53" s="8" t="n"/>
     </row>
@@ -1476,22 +1476,22 @@
         </is>
       </c>
       <c r="B54" s="9" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="C54" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D54" s="7" t="n">
-        <v>0.571</v>
+        <v>2</v>
       </c>
       <c r="E54" s="7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F54" s="7" t="n">
-        <v>2</v>
+        <v>0.286</v>
       </c>
       <c r="G54" s="7" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H54" s="8" t="n"/>
     </row>
@@ -1502,22 +1502,22 @@
         </is>
       </c>
       <c r="B55" s="9" t="n">
-        <v>7</v>
+        <v>0.25</v>
       </c>
       <c r="C55" s="9" t="n">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="D55" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E55" s="7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F55" s="7" t="n">
-        <v>3.5</v>
+        <v>0.143</v>
       </c>
       <c r="G55" s="7" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="H55" s="8" t="n"/>
     </row>
@@ -1528,19 +1528,19 @@
         </is>
       </c>
       <c r="B56" s="9" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C56" s="9" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D56" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F56" s="7" t="n">
         <v>0.143</v>
-      </c>
-      <c r="E56" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" s="7" t="n">
-        <v>0.5</v>
       </c>
       <c r="G56" s="7" t="n">
         <v>0.2</v>
@@ -1554,22 +1554,22 @@
         </is>
       </c>
       <c r="B57" s="9" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="C57" s="9" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="D57" s="9" t="n">
-        <v>0.286</v>
+        <v>7</v>
       </c>
       <c r="E57" s="9" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F57" s="6" t="n">
         <v>1</v>
       </c>
       <c r="G57" s="7" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H57" s="8" t="n"/>
     </row>
@@ -1580,19 +1580,19 @@
         </is>
       </c>
       <c r="B58" s="9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C58" s="9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D58" s="9" t="n">
         <v>5</v>
-      </c>
-      <c r="C58" s="9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="D58" s="9" t="n">
-        <v>0.714</v>
       </c>
       <c r="E58" s="9" t="n">
         <v>5</v>
       </c>
       <c r="F58" s="9" t="n">
-        <v>2.5</v>
+        <v>0.714</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>1</v>
@@ -1663,19 +1663,19 @@
         <v>1</v>
       </c>
       <c r="C64" s="7" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D64" s="7" t="n">
         <v>0.25</v>
       </c>
       <c r="E64" s="7" t="n">
-        <v>0.125</v>
+        <v>2</v>
       </c>
       <c r="F64" s="7" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G64" s="7" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H64" s="8" t="n"/>
     </row>
@@ -1686,22 +1686,22 @@
         </is>
       </c>
       <c r="B65" s="9" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C65" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D65" s="7" t="n">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="E65" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" s="7" t="n">
         <v>0.25</v>
       </c>
-      <c r="F65" s="7" t="n">
-        <v>2</v>
-      </c>
       <c r="G65" s="7" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H65" s="8" t="n"/>
     </row>
@@ -1715,19 +1715,19 @@
         <v>4</v>
       </c>
       <c r="C66" s="9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D66" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="F66" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="D66" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E66" s="7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F66" s="7" t="n">
-        <v>4</v>
-      </c>
       <c r="G66" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" s="8" t="n"/>
     </row>
@@ -1738,22 +1738,22 @@
         </is>
       </c>
       <c r="B67" s="9" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="C67" s="9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D67" s="9" t="n">
-        <v>2</v>
+        <v>0.125</v>
       </c>
       <c r="E67" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F67" s="7" t="n">
-        <v>8</v>
+        <v>0.25</v>
       </c>
       <c r="G67" s="7" t="n">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="H67" s="8" t="n"/>
     </row>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B68" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D68" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="D68" s="9" t="n">
-        <v>0.25</v>
-      </c>
       <c r="E68" s="9" t="n">
-        <v>0.125</v>
+        <v>4</v>
       </c>
       <c r="F68" s="6" t="n">
         <v>1</v>
       </c>
       <c r="G68" s="7" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H68" s="8" t="n"/>
     </row>
@@ -1790,19 +1790,19 @@
         </is>
       </c>
       <c r="B69" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C69" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="C69" s="9" t="n">
-        <v>2</v>
-      </c>
       <c r="D69" s="9" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E69" s="9" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="F69" s="9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G69" s="6" t="n">
         <v>1</v>
@@ -1873,19 +1873,19 @@
         <v>1</v>
       </c>
       <c r="C75" s="7" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D75" s="7" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E75" s="7" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="F75" s="7" t="n">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="G75" s="7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H75" s="8" t="n"/>
     </row>
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="B76" s="9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C76" s="6" t="n">
         <v>1</v>
@@ -1905,13 +1905,13 @@
         <v>5</v>
       </c>
       <c r="E76" s="7" t="n">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="F76" s="7" t="n">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="G76" s="7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H76" s="8" t="n"/>
     </row>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B77" s="9" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C77" s="9" t="n">
         <v>0.2</v>
@@ -1931,13 +1931,13 @@
         <v>1</v>
       </c>
       <c r="E77" s="7" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F77" s="7" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="G77" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" s="8" t="n"/>
     </row>
@@ -1948,22 +1948,22 @@
         </is>
       </c>
       <c r="B78" s="9" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="C78" s="9" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="D78" s="9" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E78" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F78" s="7" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G78" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" s="8" t="n"/>
     </row>
@@ -1974,22 +1974,22 @@
         </is>
       </c>
       <c r="B79" s="9" t="n">
-        <v>10</v>
+        <v>0.2</v>
       </c>
       <c r="C79" s="9" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="D79" s="9" t="n">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="E79" s="9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F79" s="6" t="n">
         <v>1</v>
       </c>
       <c r="G79" s="7" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H79" s="8" t="n"/>
     </row>
@@ -2000,19 +2000,19 @@
         </is>
       </c>
       <c r="B80" s="9" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="C80" s="9" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D80" s="9" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E80" s="9" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F80" s="9" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G80" s="6" t="n">
         <v>1</v>
@@ -2083,19 +2083,19 @@
         <v>1</v>
       </c>
       <c r="C86" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D86" s="7" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="E86" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F86" s="7" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="G86" s="7" t="n">
         <v>0.5</v>
-      </c>
-      <c r="D86" s="7" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="E86" s="7" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="F86" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G86" s="7" t="n">
-        <v>0.25</v>
       </c>
       <c r="H86" s="8" t="n"/>
     </row>
@@ -2106,22 +2106,22 @@
         </is>
       </c>
       <c r="B87" s="9" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C87" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D87" s="7" t="n">
-        <v>0.333</v>
+        <v>0.167</v>
       </c>
       <c r="E87" s="7" t="n">
-        <v>0.333</v>
+        <v>1</v>
       </c>
       <c r="F87" s="7" t="n">
-        <v>2</v>
+        <v>0.167</v>
       </c>
       <c r="G87" s="7" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H87" s="8" t="n"/>
     </row>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="B88" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C88" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="C88" s="9" t="n">
-        <v>3</v>
-      </c>
       <c r="D88" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E88" s="7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F88" s="7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G88" s="7" t="n">
         <v>1.5</v>
@@ -2158,22 +2158,22 @@
         </is>
       </c>
       <c r="B89" s="9" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="C89" s="9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D89" s="9" t="n">
-        <v>1</v>
+        <v>0.167</v>
       </c>
       <c r="E89" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F89" s="7" t="n">
-        <v>6</v>
+        <v>0.167</v>
       </c>
       <c r="G89" s="7" t="n">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="H89" s="8" t="n"/>
     </row>
@@ -2184,22 +2184,22 @@
         </is>
       </c>
       <c r="B90" s="9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C90" s="9" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="D90" s="9" t="n">
-        <v>0.167</v>
+        <v>1</v>
       </c>
       <c r="E90" s="9" t="n">
-        <v>0.167</v>
+        <v>6</v>
       </c>
       <c r="F90" s="6" t="n">
         <v>1</v>
       </c>
       <c r="G90" s="7" t="n">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="H90" s="8" t="n"/>
     </row>
@@ -2210,19 +2210,19 @@
         </is>
       </c>
       <c r="B91" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C91" s="9" t="n">
         <v>4</v>
-      </c>
-      <c r="C91" s="9" t="n">
-        <v>2</v>
       </c>
       <c r="D91" s="9" t="n">
         <v>0.667</v>
       </c>
       <c r="E91" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F91" s="9" t="n">
         <v>0.667</v>
-      </c>
-      <c r="F91" s="9" t="n">
-        <v>4</v>
       </c>
       <c r="G91" s="6" t="n">
         <v>1</v>
@@ -2293,19 +2293,19 @@
         <v>1</v>
       </c>
       <c r="C97" s="7" t="n">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="D97" s="7" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E97" s="7" t="n">
-        <v>0.25</v>
+        <v>10</v>
       </c>
       <c r="F97" s="7" t="n">
-        <v>0.25</v>
+        <v>20</v>
       </c>
       <c r="G97" s="7" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H97" s="8" t="n"/>
     </row>
@@ -2316,22 +2316,22 @@
         </is>
       </c>
       <c r="B98" s="9" t="n">
-        <v>10</v>
+        <v>0.4</v>
       </c>
       <c r="C98" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D98" s="7" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E98" s="7" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="F98" s="7" t="n">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="G98" s="7" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H98" s="8" t="n"/>
     </row>
@@ -2342,22 +2342,22 @@
         </is>
       </c>
       <c r="B99" s="9" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C99" s="9" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="D99" s="6" t="n">
         <v>1</v>
       </c>
       <c r="E99" s="7" t="n">
-        <v>0.125</v>
+        <v>4</v>
       </c>
       <c r="F99" s="7" t="n">
-        <v>0.125</v>
+        <v>8</v>
       </c>
       <c r="G99" s="7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H99" s="8" t="n"/>
     </row>
@@ -2368,22 +2368,22 @@
         </is>
       </c>
       <c r="B100" s="9" t="n">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="C100" s="9" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="D100" s="9" t="n">
-        <v>8</v>
+        <v>0.25</v>
       </c>
       <c r="E100" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F100" s="7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G100" s="7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H100" s="8" t="n"/>
     </row>
@@ -2394,22 +2394,22 @@
         </is>
       </c>
       <c r="B101" s="9" t="n">
-        <v>4</v>
+        <v>0.05</v>
       </c>
       <c r="C101" s="9" t="n">
-        <v>0.4</v>
+        <v>0.125</v>
       </c>
       <c r="D101" s="9" t="n">
-        <v>8</v>
+        <v>0.125</v>
       </c>
       <c r="E101" s="9" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F101" s="6" t="n">
         <v>1</v>
       </c>
       <c r="G101" s="7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H101" s="8" t="n"/>
     </row>
@@ -2420,19 +2420,19 @@
         </is>
       </c>
       <c r="B102" s="9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C102" s="9" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D102" s="9" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="E102" s="9" t="n">
         <v>0.5</v>
       </c>
-      <c r="C102" s="9" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D102" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E102" s="9" t="n">
-        <v>0.125</v>
-      </c>
       <c r="F102" s="9" t="n">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="G102" s="6" t="n">
         <v>1</v>
@@ -2495,13 +2495,13 @@
         <v>1</v>
       </c>
       <c r="C108" s="7" t="n">
-        <v>0.75</v>
+        <v>2.667</v>
       </c>
       <c r="D108" s="7" t="n">
-        <v>2</v>
+        <v>2.667</v>
       </c>
       <c r="E108" s="7" t="n">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="F108" s="8" t="n"/>
       <c r="G108" s="5" t="n"/>
@@ -2514,16 +2514,16 @@
         </is>
       </c>
       <c r="B109" s="9" t="n">
-        <v>1.333</v>
+        <v>0.375</v>
       </c>
       <c r="C109" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D109" s="7" t="n">
-        <v>2.667</v>
+        <v>1</v>
       </c>
       <c r="E109" s="7" t="n">
-        <v>2.667</v>
+        <v>0.5</v>
       </c>
       <c r="F109" s="8" t="n"/>
       <c r="G109" s="5" t="n"/>
@@ -2536,16 +2536,16 @@
         </is>
       </c>
       <c r="B110" s="9" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C110" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E110" s="7" t="n">
         <v>0.5</v>
-      </c>
-      <c r="C110" s="9" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="D110" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E110" s="7" t="n">
-        <v>1</v>
       </c>
       <c r="F110" s="8" t="n"/>
       <c r="G110" s="5" t="n"/>
@@ -2558,13 +2558,13 @@
         </is>
       </c>
       <c r="B111" s="9" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C111" s="9" t="n">
-        <v>0.375</v>
+        <v>2</v>
       </c>
       <c r="D111" s="9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E111" s="6" t="n">
         <v>1</v>
@@ -2635,13 +2635,13 @@
         <v>1</v>
       </c>
       <c r="C117" s="7" t="n">
-        <v>1</v>
+        <v>2.333</v>
       </c>
       <c r="D117" s="7" t="n">
         <v>2.333</v>
       </c>
       <c r="E117" s="7" t="n">
-        <v>2.333</v>
+        <v>1</v>
       </c>
       <c r="F117" s="8" t="n"/>
       <c r="G117" s="5" t="n"/>
@@ -2654,16 +2654,16 @@
         </is>
       </c>
       <c r="B118" s="9" t="n">
-        <v>1</v>
+        <v>0.429</v>
       </c>
       <c r="C118" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D118" s="7" t="n">
-        <v>2.333</v>
+        <v>1</v>
       </c>
       <c r="E118" s="7" t="n">
-        <v>2.333</v>
+        <v>0.429</v>
       </c>
       <c r="F118" s="8" t="n"/>
       <c r="G118" s="5" t="n"/>
@@ -2679,13 +2679,13 @@
         <v>0.429</v>
       </c>
       <c r="C119" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E119" s="7" t="n">
         <v>0.429</v>
-      </c>
-      <c r="D119" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E119" s="7" t="n">
-        <v>1</v>
       </c>
       <c r="F119" s="8" t="n"/>
       <c r="G119" s="5" t="n"/>
@@ -2698,13 +2698,13 @@
         </is>
       </c>
       <c r="B120" s="9" t="n">
-        <v>0.429</v>
+        <v>1</v>
       </c>
       <c r="C120" s="9" t="n">
-        <v>0.429</v>
+        <v>2.333</v>
       </c>
       <c r="D120" s="9" t="n">
-        <v>1</v>
+        <v>2.333</v>
       </c>
       <c r="E120" s="6" t="n">
         <v>1</v>
@@ -2775,13 +2775,13 @@
         <v>1</v>
       </c>
       <c r="C126" s="7" t="n">
-        <v>6</v>
+        <v>0.4</v>
       </c>
       <c r="D126" s="7" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E126" s="7" t="n">
-        <v>2.4</v>
+        <v>0.167</v>
       </c>
       <c r="F126" s="8" t="n"/>
       <c r="G126" s="5" t="n"/>
@@ -2794,16 +2794,16 @@
         </is>
       </c>
       <c r="B127" s="9" t="n">
-        <v>0.167</v>
+        <v>2.5</v>
       </c>
       <c r="C127" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D127" s="7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E127" s="7" t="n">
-        <v>0.4</v>
+        <v>0.417</v>
       </c>
       <c r="F127" s="8" t="n"/>
       <c r="G127" s="5" t="n"/>
@@ -2816,16 +2816,16 @@
         </is>
       </c>
       <c r="B128" s="9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C128" s="9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D128" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" s="7" t="n">
         <v>0.083</v>
-      </c>
-      <c r="C128" s="9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D128" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E128" s="7" t="n">
-        <v>0.2</v>
       </c>
       <c r="F128" s="8" t="n"/>
       <c r="G128" s="5" t="n"/>
@@ -2838,13 +2838,13 @@
         </is>
       </c>
       <c r="B129" s="9" t="n">
-        <v>0.417</v>
+        <v>6</v>
       </c>
       <c r="C129" s="9" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="D129" s="9" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E129" s="6" t="n">
         <v>1</v>
@@ -2915,13 +2915,13 @@
         <v>1</v>
       </c>
       <c r="C135" s="7" t="n">
-        <v>3.333</v>
+        <v>0.6</v>
       </c>
       <c r="D135" s="7" t="n">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="E135" s="7" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="F135" s="8" t="n"/>
       <c r="G135" s="5" t="n"/>
@@ -2934,16 +2934,16 @@
         </is>
       </c>
       <c r="B136" s="9" t="n">
-        <v>0.3</v>
+        <v>1.667</v>
       </c>
       <c r="C136" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D136" s="7" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E136" s="7" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F136" s="8" t="n"/>
       <c r="G136" s="5" t="n"/>
@@ -2956,16 +2956,16 @@
         </is>
       </c>
       <c r="B137" s="9" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="C137" s="9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D137" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E137" s="7" t="n">
         <v>0.2</v>
-      </c>
-      <c r="C137" s="9" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="D137" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E137" s="7" t="n">
-        <v>0.4</v>
       </c>
       <c r="F137" s="8" t="n"/>
       <c r="G137" s="5" t="n"/>
@@ -2978,13 +2978,13 @@
         </is>
       </c>
       <c r="B138" s="9" t="n">
-        <v>0.5</v>
+        <v>3.333</v>
       </c>
       <c r="C138" s="9" t="n">
-        <v>1.667</v>
+        <v>2</v>
       </c>
       <c r="D138" s="9" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E138" s="6" t="n">
         <v>1</v>
@@ -3055,13 +3055,13 @@
         <v>1</v>
       </c>
       <c r="C144" s="7" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="D144" s="7" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E144" s="7" t="n">
-        <v>1.5</v>
+        <v>1.667</v>
       </c>
       <c r="F144" s="8" t="n"/>
       <c r="G144" s="5" t="n"/>
@@ -3074,16 +3074,16 @@
         </is>
       </c>
       <c r="B145" s="9" t="n">
-        <v>1.667</v>
+        <v>0.4</v>
       </c>
       <c r="C145" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D145" s="7" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E145" s="7" t="n">
-        <v>2.5</v>
+        <v>0.667</v>
       </c>
       <c r="F145" s="8" t="n"/>
       <c r="G145" s="5" t="n"/>
@@ -3096,16 +3096,16 @@
         </is>
       </c>
       <c r="B146" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C146" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D146" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E146" s="7" t="n">
         <v>3.333</v>
-      </c>
-      <c r="C146" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D146" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E146" s="7" t="n">
-        <v>5</v>
       </c>
       <c r="F146" s="8" t="n"/>
       <c r="G146" s="5" t="n"/>
@@ -3118,13 +3118,13 @@
         </is>
       </c>
       <c r="B147" s="9" t="n">
-        <v>0.667</v>
+        <v>0.6</v>
       </c>
       <c r="C147" s="9" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="D147" s="9" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E147" s="6" t="n">
         <v>1</v>
@@ -3195,13 +3195,13 @@
         <v>1</v>
       </c>
       <c r="C153" s="7" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="D153" s="7" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="E153" s="7" t="n">
-        <v>1.5</v>
+        <v>1.667</v>
       </c>
       <c r="F153" s="8" t="n"/>
       <c r="G153" s="5" t="n"/>
@@ -3214,16 +3214,16 @@
         </is>
       </c>
       <c r="B154" s="9" t="n">
-        <v>1.667</v>
+        <v>0.4</v>
       </c>
       <c r="C154" s="6" t="n">
         <v>1</v>
       </c>
       <c r="D154" s="7" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E154" s="7" t="n">
-        <v>2.5</v>
+        <v>0.667</v>
       </c>
       <c r="F154" s="8" t="n"/>
       <c r="G154" s="5" t="n"/>
@@ -3236,16 +3236,16 @@
         </is>
       </c>
       <c r="B155" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C155" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D155" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E155" s="7" t="n">
         <v>3.333</v>
-      </c>
-      <c r="C155" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D155" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E155" s="7" t="n">
-        <v>5</v>
       </c>
       <c r="F155" s="8" t="n"/>
       <c r="G155" s="5" t="n"/>
@@ -3258,13 +3258,13 @@
         </is>
       </c>
       <c r="B156" s="9" t="n">
-        <v>0.667</v>
+        <v>0.6</v>
       </c>
       <c r="C156" s="9" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="D156" s="9" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E156" s="6" t="n">
         <v>1</v>
